--- a/results/FrequencyTables/27278725_CA3.xlsx
+++ b/results/FrequencyTables/27278725_CA3.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00348977135980746</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00601684717208183</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.990914560770156</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00240673886883273</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.989891696750902</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00667870036101083</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00246690734055355</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.01684717208183e-05</v>
       </c>
       <c r="K2">
-        <v>0.08</v>
+        <v>0.0154632972322503</v>
       </c>
       <c r="L2">
-        <v>0.99</v>
+        <v>0.648134777376655</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00276774969915764</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00469314079422383</v>
       </c>
       <c r="O2">
-        <v>0.99</v>
+        <v>0.998916967509025</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.000300842358604091</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.98</v>
+        <v>0.999879663056558</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00246690734055355</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.000421179302045728</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00547533092659446</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0755716004813478</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00716004813477738</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -542,70 +542,70 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.000120336943441637</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00601684717208183</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>0.033453670276775</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00607701564380265</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.6</v>
+        <v>0.648977135980746</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.990673886883273</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.991335740072202</v>
       </c>
       <c r="K3">
-        <v>0.08</v>
+        <v>0.051323706377858</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.000300842358604091</v>
       </c>
       <c r="M3">
-        <v>0.97</v>
+        <v>0.628880866425993</v>
       </c>
       <c r="N3">
-        <v>0.91</v>
+        <v>0.926113116726835</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.000120336943441637</v>
       </c>
       <c r="Q3">
-        <v>0.82</v>
+        <v>0.961672683513839</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.000481347773766546</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.0123947051744886</v>
       </c>
       <c r="U3">
-        <v>0.84</v>
+        <v>0.799157641395909</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00276774969915764</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00613718411552347</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00246690734055355</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,55 +613,55 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.990493381468111</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00300842358604091</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00288808664259928</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.000120336943441637</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.000300842358604091</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.993321299638989</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00246690734055355</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00601684717208183</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00409145607701564</v>
       </c>
       <c r="L4">
-        <v>0.01</v>
+        <v>0.325150421179302</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0036101083032491</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.01684717208183e-05</v>
       </c>
       <c r="O4">
-        <v>0.01</v>
+        <v>0.000782190132370638</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.999518652226233</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.02</v>
+        <v>0.000120336943441637</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00120336943441637</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.000782190132370638</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.913056558363418</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.990373044524669</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,70 +687,70 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00601684717208183</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.990854392298436</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.000120336943441637</v>
       </c>
       <c r="E5">
-        <v>0.99</v>
+        <v>0.962755716004813</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00330926594464501</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.4</v>
+        <v>0.341395908543923</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000842358604091456</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00860409145607702</v>
       </c>
       <c r="K5">
-        <v>0.84</v>
+        <v>0.925210589651023</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0242478941034898</v>
       </c>
       <c r="M5">
-        <v>0.03</v>
+        <v>0.361672683513839</v>
       </c>
       <c r="N5">
-        <v>0.09</v>
+        <v>0.0659446450060168</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.000180505415162455</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.18</v>
+        <v>0.0365824308062575</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.99705174488568</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.985619735258724</v>
       </c>
       <c r="U5">
-        <v>0.16</v>
+        <v>0.188688327316486</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.996450060168472</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00192539109506619</v>
       </c>
       <c r="X5">
         <v>0</v>
